--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_6_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_6_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>7.401486830834377e-16</v>
+        <v>5.586027796856133e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>38.72921415750845</v>
+        <v>43.8677195619666</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.285787358884768, 46.172640956132135]</t>
+          <t>[36.611000206572484, 51.124438917360706]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4780265737609621, 1.9057108589343503]</t>
+          <t>[1.3145002294299628, 1.666710817219811]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.61419782149616</v>
+        <v>58.99188405837011</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.90217237955555, 62.32622326343676]</t>
+          <t>[54.37151505092708, 63.61225306581314]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.99169169169215</v>
+        <v>19.69453453453499</v>
       </c>
       <c r="X2" t="n">
-        <v>18.10714714714758</v>
+        <v>18.97085085085128</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.87623623623672</v>
+        <v>20.41821821821869</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.47000000000023</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.953992523340276e-13</v>
+        <v>4.088994698392412e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>9.218357071834983e-13</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.569155605036974e-09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2457135161537739</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.62803123548015</v>
+        <v>38.61458320221318</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[31.21197568469782, 60.04408678626248]</t>
+          <t>[27.191955202473117, 50.037211201953234]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.41638547954426e-09</v>
+        <v>5.029670013811938e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>4.41638547954426e-09</v>
+        <v>5.029670013811938e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.377421467581465</v>
+        <v>0.03144737390980801</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -2.07552667804731]</t>
+          <t>[-0.30818426431611545, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.8550223525430174</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.8550223525430174</v>
       </c>
       <c r="S3" t="n">
-        <v>63.27505708089256</v>
+        <v>58.87209449871644</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.8552296955301, 70.69488446625502]</t>
+          <t>[51.43021425509957, 66.31397474233331]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.880540540540625</v>
+        <v>21.88988988988989</v>
       </c>
       <c r="X3" t="n">
-        <v>7.752852852852925</v>
+        <v>20.7007007007007</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.00822822822833</v>
+        <v>23.07907907907908</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_6_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_6_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -585,11 +585,11 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.8677195619666</v>
+        <v>40.78355185443046</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.611000206572484, 51.124438917360706]</t>
+          <t>[33.34530771086337, 48.22179599799754]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.490605523324887</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3145002294299628, 1.666710817219811]</t>
+          <t>[1.3145002294299637, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.99188405837011</v>
+        <v>60.70174613183763</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.37151505092708, 63.61225306581314]</t>
+          <t>[55.872030843226, 65.53146142044926]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.69453453453499</v>
+        <v>19.4621621621626</v>
       </c>
       <c r="X2" t="n">
-        <v>18.97085085085128</v>
+        <v>18.64054054054096</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.41821821821869</v>
+        <v>20.28378378378423</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.088994698392412e-10</v>
+        <v>2.371436380599334e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>1.569155605036974e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2457135161537739</v>
-      </c>
+        <v>9.393407710653399e-13</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.61458320221318</v>
+        <v>42.12426253694531</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[27.191955202473117, 50.037211201953234]</t>
+          <t>[29.746944016807248, 54.50158105708337]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.029670013811938e-10</v>
+        <v>3.97993193956836e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>5.029670013811938e-10</v>
+        <v>3.97993193956836e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03144737390980801</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.30818426431611545, 0.37107901213573147]</t>
+          <t>[1.616395018964118, 2.245342497160273]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.8550223525430174</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8550223525430174</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.87209449871644</v>
+        <v>61.378510754425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.43021425509957, 66.31397474233331]</t>
+          <t>[54.551938096323155, 68.20508341252685]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.88988988988989</v>
+        <v>15.69641641641649</v>
       </c>
       <c r="X3" t="n">
-        <v>20.7007007007007</v>
+        <v>14.56228228228235</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.07907907907908</v>
+        <v>16.83055055055063</v>
       </c>
     </row>
   </sheetData>
